--- a/Source/Completed/AirlineKuisine.xlsx
+++ b/Source/Completed/AirlineKuisine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\Completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2347AAF-0636-491F-88B7-FE5E9CFA4F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E20C06A-D6DA-4F0E-B8C7-F504D8BCB2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
+    <workbookView minimized="1" xWindow="5260" yWindow="720" windowWidth="25370" windowHeight="18870" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -2232,10 +2232,10 @@
   <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2430,8 +2430,8 @@
         <v>24</v>
       </c>
       <c r="L2" s="12" t="str">
-        <f>_xlfn.CONCAT("@PART[",C2,"]:AFTER[",A2,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M2,IF($Q2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q2),""),IF($R2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R2),""),IF($S2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S2),""),IF($T2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T2),""),IF($AM2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM2),""),IF(AK2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK2),""),CHAR(10),"}",IF(Z2="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C2,"]:NEEDS[KiwiDeprecate]:AFTER[",A2,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[dsak_swg_3at]:AFTER[DeepSky]
+        <f>_xlfn.CONCAT("@PART[",C2,"]:AFTER[",A2,"] // ",D2,CHAR(10),"{",CHAR(10),"    @TechRequired = ",M2,IF($Q2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q2),""),IF($R2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R2),""),IF($S2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S2),""),IF($T2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T2),""),IF($AM2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM2),""),IF(AK2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK2),""),CHAR(10),"}",IF(Z2="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C2,"]:NEEDS[KiwiDeprecate]:AFTER[",A2,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
+        <v>@PART[dsak_swg_3at]:AFTER[DeepSky] // DS Mk3 Sewage Tank
 {
     @TechRequired = heavyAerodynamics
     spacePlaneSystemUpgradeType = mark3
@@ -2533,7 +2533,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>361</v>
       </c>
@@ -2565,8 +2565,8 @@
         <v>24</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>_xlfn.CONCAT("@PART[",C3,"]:AFTER[",A3,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M3,IF($Q3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q3),""),IF($R3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R3),""),IF($S3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S3),""),IF($T3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T3),""),IF($AM3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM3),""),IF(AK3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK3),""),CHAR(10),"}",IF(Z3="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C3,"]:NEEDS[KiwiDeprecate]:AFTER[",A3,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[dsak_ess_3at]:AFTER[DeepSky]
+        <f t="shared" ref="L3:L31" si="0">_xlfn.CONCAT("@PART[",C3,"]:AFTER[",A3,"] // ",D3,CHAR(10),"{",CHAR(10),"    @TechRequired = ",M3,IF($Q3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q3),""),IF($R3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R3),""),IF($S3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S3),""),IF($T3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T3),""),IF($AM3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM3),""),IF(AK3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK3),""),CHAR(10),"}",IF(Z3="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C3,"]:NEEDS[KiwiDeprecate]:AFTER[",A3,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
+        <v>@PART[dsak_ess_3at]:AFTER[DeepSky] // DS Mk3 Essentials Tank Tiny
 {
     @TechRequired = heavyAerodynamics
     @cost = 3000
@@ -2672,7 +2672,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -2704,8 +2704,8 @@
         <v>24</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>_xlfn.CONCAT("@PART[",C4,"]:AFTER[",A4,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M4,IF($Q4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q4),""),IF($R4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R4),""),IF($S4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S4),""),IF($T4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T4),""),IF($AM4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM4),""),IF(AK4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK4),""),CHAR(10),"}",IF(Z4="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C4,"]:NEEDS[KiwiDeprecate]:AFTER[",A4,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[dsak_ess_3as]:AFTER[DeepSky]
+        <f t="shared" si="0"/>
+        <v>@PART[dsak_ess_3as]:AFTER[DeepSky] // DS Mk3 Essentials Tank Short
 {
     @TechRequired = heavyAerodynamics
     @entryCost = 40000
@@ -2815,7 +2815,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -2847,8 +2847,8 @@
         <v>24</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f t="shared" ref="L5:L31" si="0">_xlfn.CONCAT("@PART[",C5,"]:AFTER[",A5,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M5,IF($Q5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q5),""),IF($R5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R5),""),IF($S5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S5),""),IF($T5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T5),""),IF($AM5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM5),""),IF(AK5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK5),""),CHAR(10),"}",IF(Z5="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C5,"]:NEEDS[KiwiDeprecate]:AFTER[",A5,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[dsak_ess_3a]:AFTER[DeepSky]
+        <f t="shared" si="0"/>
+        <v>@PART[dsak_ess_3a]:AFTER[DeepSky] // DS Mk3 Essentials Tank
 {
     @TechRequired = heavyAerodynamics
     @entryCost = 55000
@@ -2958,7 +2958,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>361</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_proc_3c]:AFTER[DeepSky]
+        <v>@PART[dsak_proc_3c]:AFTER[DeepSky] // DS Mk3 Inline Chemical Plant
 {
     @TechRequired = advOffworldMining
     spacePlaneSystemUpgradeType = mark3
@@ -3093,7 +3093,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_proc_3b]:AFTER[DeepSky]
+        <v>@PART[dsak_proc_3b]:AFTER[DeepSky] // DS Mk3 Inline Fuel Cell Array
 {
     @TechRequired = cuttingEdgeSolarTech
     spacePlaneSystemUpgradeType = mark3
@@ -3228,7 +3228,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_proc_3a]:AFTER[DeepSky]
+        <v>@PART[dsak_proc_3a]:AFTER[DeepSky] // DS Mk3 Inline Greenhouse
 {
     @TechRequired = longTermHabitation
     spacePlaneSystemUpgradeType = mark3
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_cabin3]:AFTER[DeepSky]
+        <v>@PART[dsak_cabin3]:AFTER[DeepSky] // DS Mk3 Rec Centre
 {
     @TechRequired = shortTermHabitation
     engineUpgradeType = standardOther
@@ -3518,7 +3518,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_swg_as]:AFTER[DeepSky]
+        <v>@PART[dsak_swg_as]:AFTER[DeepSky] // DS Mk2 Sewage Tank
 {
     @TechRequired = advAerodynamics
     spacePlaneSystemUpgradeType = mark2
@@ -3653,7 +3653,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>361</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_ess_bs]:AFTER[DeepSky]
+        <v>@PART[dsak_ess_bs]:AFTER[DeepSky] // DS Mk2 Pressurized Tank Short
 {
     @TechRequired = advAerodynamics
     spacePlaneSystemUpgradeType = mark2
@@ -3788,7 +3788,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>361</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_ess_bl]:AFTER[DeepSky]
+        <v>@PART[dsak_ess_bl]:AFTER[DeepSky] // DS Mk2 Pressurized Tank Long
 {
     @TechRequired = advAerodynamics
     spacePlaneSystemUpgradeType = mark2
@@ -3923,7 +3923,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>361</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_ess_as]:AFTER[DeepSky]
+        <v>@PART[dsak_ess_as]:AFTER[DeepSky] // DS Mk2 Essentials Tank Short
 {
     @TechRequired = advAerodynamics
     spacePlaneSystemUpgradeType = mark2
@@ -4058,7 +4058,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>361</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_ess_al]:AFTER[DeepSky]
+        <v>@PART[dsak_ess_al]:AFTER[DeepSky] // DS Mk2 Essentials Tank Long
 {
     @TechRequired = advAerodynamics
     spacePlaneSystemUpgradeType = mark2
@@ -4193,7 +4193,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>361</v>
       </c>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_proc_c]:AFTER[DeepSky]
+        <v>@PART[dsak_proc_c]:AFTER[DeepSky] // DS Mk2 Inline Chemical Plant
 {
     @TechRequired = advLogistics
     spacePlaneSystemUpgradeType = mark2
@@ -4328,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>361</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_proc_b]:AFTER[DeepSky]
+        <v>@PART[dsak_proc_b]:AFTER[DeepSky] // DS Mk2 Inline Fuel Cell Array
 {
     @TechRequired = advSolarTech
     spacePlaneSystemUpgradeType = mark2
@@ -4463,7 +4463,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>361</v>
       </c>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_proc_a]:AFTER[DeepSky]
+        <v>@PART[dsak_proc_a]:AFTER[DeepSky] // DS Mk2 Inline Greenhouse
 {
     @TechRequired = shortTermHabitation
     spacePlaneSystemUpgradeType = mark2
@@ -4598,7 +4598,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="L18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_cabin2]:AFTER[DeepSky]
+        <v>@PART[dsak_cabin2]:AFTER[DeepSky] // DS Mk2 Rec Centre Long
 {
     @TechRequired = shortTermHabitation
     spacePlaneSystemUpgradeType = mark2
@@ -4733,7 +4733,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>361</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="L19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[dsak_cabin]:AFTER[DeepSky]
+        <v>@PART[dsak_cabin]:AFTER[DeepSky] // DS Mk2 Rec Centre Short
 {
     @TechRequired = shortTermHabitation
     spacePlaneSystemUpgradeType = mark2
@@ -4868,7 +4868,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>361</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="L20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_pres_srf1]:AFTER[DeepSky]
+        <v>@PART[ds00_pres_srf1]:AFTER[DeepSky] // DS Pressure Tank Radial
 {
     @TechRequired = advancedFlexibleFuelSolutions
     structuralUpgradeType = 5_6
@@ -4986,7 +4986,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="L21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_pres_250]:AFTER[DeepSky]
+        <v>@PART[ds00_pres_250]:AFTER[DeepSky] // DS Pressure Tank 2.5m
 {
     @TechRequired = advAerodynamics
     spacePlaneSystemUpgradeType = mark1
@@ -5121,7 +5121,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>361</v>
       </c>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="L22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_pres_mk2]:AFTER[DeepSky]
+        <v>@PART[ds00_pres_mk2]:AFTER[DeepSky] // DS Pressure Tank Mk2
 {
     @TechRequired = heavyAerodynamics
     spacePlaneSystemUpgradeType = mark2
@@ -5256,7 +5256,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>361</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="L23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_pres_mk2adap]:AFTER[DeepSky]
+        <v>@PART[ds00_pres_mk2adap]:AFTER[DeepSky] // DS Pressure Tank Mk2 Adapter
 {
     @TechRequired = heavyAerodynamics
     spacePlaneSystemUpgradeType = mark2
@@ -5391,7 +5391,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>361</v>
       </c>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="L24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_pres_mk1]:AFTER[DeepSky]
+        <v>@PART[ds00_pres_mk1]:AFTER[DeepSky] // DS Pressure Tank Mk1
 {
     @TechRequired = advAerodynamics
     spacePlaneSystemUpgradeType = mark1
@@ -5559,7 +5559,7 @@
       </c>
       <c r="L25" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_kPad]:AFTER[DeepSky]
+        <v>@PART[ds00_kPad]:AFTER[DeepSky] // DS kPad
 {
     @TechRequired = Not Valid Combination
     engineUpgradeType = standardOther
@@ -5678,7 +5678,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>361</v>
       </c>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="L26" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_intrbm]:AFTER[DeepSky]
+        <v>@PART[ds00_intrbm]:AFTER[DeepSky] // DS RBM Variable Geometry Intake
 {
     @TechRequired = isru
     structuralUpgradeType = 7_8
@@ -5796,7 +5796,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>361</v>
       </c>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="L27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_intmk2]:AFTER[DeepSky]
+        <v>@PART[ds00_intmk2]:AFTER[DeepSky] // DS Voyager Mk2 Intake
 {
     @TechRequired = isru
     spacePlaneSystemUpgradeType = mark2
@@ -5931,7 +5931,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>361</v>
       </c>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="L28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_intlong]:AFTER[DeepSky]
+        <v>@PART[ds00_intlong]:AFTER[DeepSky] // DS RailRoad Ramp Intake
 {
     @TechRequired = hypersonicFlight
     structuralUpgradeType = 7_8
@@ -6049,7 +6049,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>361</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="L29" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_intcirc]:AFTER[DeepSky]
+        <v>@PART[ds00_intcirc]:AFTER[DeepSky] // DS Ram Circular Intake
 {
     @TechRequired = supersonicFlight
     structuralUpgradeType = 5_6
@@ -6167,7 +6167,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>361</v>
       </c>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="L30" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_srfcockpit]:AFTER[DeepSky]
+        <v>@PART[ds00_srfcockpit]:AFTER[DeepSky] // DS Spitfire cockpit
 {
     @TechRequired = aviation
     spacePlaneSystemUpgradeType = mark1
@@ -6308,7 +6308,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" ht="180.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>361</v>
       </c>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="L31" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[ds00_mk2cockpit]:AFTER[DeepSky]
+        <v>@PART[ds00_mk2cockpit]:AFTER[DeepSky] // DS Voyager Mk2 Inline Cockpit
 {
     @TechRequired = supersonicFlight
     spacePlaneSystemUpgradeType = mark2
